--- a/data/MW180604v2.xlsx
+++ b/data/MW180604v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Data_Science/R.WD/r_programming_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACF47D1-3259-BC49-8F31-412CF2F262CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95ACAED-32D2-3C47-9A16-72CD20660EF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4880" yWindow="2360" windowWidth="41340" windowHeight="24920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="91">
   <si>
     <t>학(직)번</t>
   </si>
@@ -378,6 +378,10 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>생통방통2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -839,7 +843,7 @@
   <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
@@ -956,7 +960,7 @@
         <v>87</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
